--- a/data/trans_camb/P1409-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1409-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2233740923832571</v>
+        <v>-0.2434941456719372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.877744738366048</v>
+        <v>0.8238338287082493</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.6188436262511301</v>
+        <v>-0.7251775492359575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7758640099367441</v>
+        <v>-0.9538880897027079</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.09771500753299192</v>
+        <v>-0.1327188549921141</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4630681886308614</v>
+        <v>0.481153948820975</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.096570766990952</v>
+        <v>3.11384081215528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.916059181991761</v>
+        <v>4.907892152388913</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.817355504760676</v>
+        <v>3.09805421644103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.118976256494614</v>
+        <v>2.152523214533003</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.412868581218532</v>
+        <v>2.428785724073202</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.002414939792961</v>
+        <v>2.967164035146095</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1144126282907707</v>
+        <v>-0.1303138826919985</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2185023264777291</v>
+        <v>0.2144566504110713</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2389698813454636</v>
+        <v>-0.236537053272054</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2570757389228256</v>
+        <v>-0.285963229943658</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05256442451910769</v>
+        <v>-0.06483306655508729</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1076959789300528</v>
+        <v>0.1510681695297388</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.69359647298073</v>
+        <v>2.73043498722772</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.824898315683571</v>
+        <v>3.980507184258718</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.67009208862612</v>
+        <v>1.850668209415727</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.41075387890745</v>
+        <v>1.348507663776941</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.493365056647966</v>
+        <v>1.454717115048222</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.844003324638548</v>
+        <v>1.803635888541302</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7065752237832844</v>
+        <v>-0.6701950170354379</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.214768197452575</v>
+        <v>1.176653715957176</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2203171634122141</v>
+        <v>-0.2963160750116639</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7115340316452392</v>
+        <v>-0.5005569489432281</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05801639117484611</v>
+        <v>0.03964435712848494</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9053147110137556</v>
+        <v>0.8677976724177238</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.789731127446564</v>
+        <v>1.83559455027235</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.962931617727243</v>
+        <v>5.049380338632513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.257644020907881</v>
+        <v>3.364941688806311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.307009060238224</v>
+        <v>2.555750612481514</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.201945205165297</v>
+        <v>2.122416364794705</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.390096592650753</v>
+        <v>3.310777277381861</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.345349461001801</v>
+        <v>-0.3129901883732035</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4833611773318768</v>
+        <v>0.5282678460746328</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1194267567064367</v>
+        <v>-0.09152470458650484</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1852949519418548</v>
+        <v>-0.1626111660933177</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.005803899130103243</v>
+        <v>0.007473622503588205</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2647781510316392</v>
+        <v>0.2762351525375625</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.544602815141811</v>
+        <v>1.519807877541806</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.070018106373189</v>
+        <v>4.147162426662613</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.460399726752791</v>
+        <v>1.689367578909606</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.180281889824147</v>
+        <v>1.279435201916689</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.227636301257709</v>
+        <v>1.145763508227075</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.844052315767985</v>
+        <v>1.797445221585762</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>1.467461373862604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.959104160328869</v>
+        <v>2.959104160328871</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.8411467111981967</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.288027765611367</v>
+        <v>2.288027765611365</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9550659096133772</v>
+        <v>-0.9836822592265191</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06650077747332145</v>
+        <v>0.09321011558638617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3669270457177388</v>
+        <v>-0.4238352494480294</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.107489678924701</v>
+        <v>1.104397765815689</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.2050664862922991</v>
+        <v>-0.275772988667903</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.041078327856167</v>
+        <v>1.085318154752266</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.399935429175317</v>
+        <v>1.403523770128929</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.516605087390721</v>
+        <v>3.479066455130248</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.355218552578877</v>
+        <v>3.425017632270664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.726809517531659</v>
+        <v>4.725732804881448</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.036857053344904</v>
+        <v>1.903369899900479</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.54258687679689</v>
+        <v>3.489503277304492</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>0.5952104967499626</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1.200229108973558</v>
+        <v>1.200229108973559</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4426264368345923</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5317455946278348</v>
+        <v>-0.5485038856402232</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.04762317688496175</v>
+        <v>-0.06223396873750456</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1439735800381611</v>
+        <v>-0.1779932052657124</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2478828175302634</v>
+        <v>0.2848928659039288</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1631229560449479</v>
+        <v>-0.142926021462902</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4121052547593285</v>
+        <v>0.3995587481250201</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.706237033140152</v>
+        <v>1.911211947094326</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.25275135361426</v>
+        <v>4.34683137163428</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.022643093260173</v>
+        <v>1.995893699283576</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.863439678706114</v>
+        <v>2.963978291537553</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.407817376190889</v>
+        <v>1.372441438549765</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.595214188818988</v>
+        <v>2.526788944135904</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>0.6134953133534408</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.650178872364331</v>
+        <v>0.6501788723643303</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.953905955011209</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.914834013227745</v>
+        <v>-0.8871969440814185</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8645561079669906</v>
+        <v>-0.9531142747090011</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5973506616593983</v>
+        <v>-0.5221513734123964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.575205432184922</v>
+        <v>1.591787638847167</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4293473170784883</v>
+        <v>-0.3635413246726391</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8344571218243404</v>
+        <v>0.8025197643257683</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.180190844954009</v>
+        <v>2.251482788439569</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.413291113951013</v>
+        <v>2.311383164185164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.657388077226087</v>
+        <v>2.596312817303864</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.899828997071766</v>
+        <v>4.980015330046365</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.937714776066887</v>
+        <v>1.943825553045258</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.09182710032806</v>
+        <v>3.057241135688675</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>0.2363718363967544</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.2505055388395266</v>
+        <v>0.2505055388395264</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.3188199219031564</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2839541746304393</v>
+        <v>-0.2650767890369465</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2647483842852962</v>
+        <v>-0.2942845003225753</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1688932153516247</v>
+        <v>-0.1584759535544942</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3752850493280157</v>
+        <v>0.377113937807411</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1319434029268115</v>
+        <v>-0.1166950814130555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2345122840349669</v>
+        <v>0.2294701223828981</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.201360289611586</v>
+        <v>1.252171164135518</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.286111225490688</v>
+        <v>1.299860262812501</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.155933316874355</v>
+        <v>1.134038420274482</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.138397221073906</v>
+        <v>2.189488214441931</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8286556351282567</v>
+        <v>0.8286350501283748</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.367246279996096</v>
+        <v>1.392354814038638</v>
       </c>
     </row>
     <row r="28">
@@ -1258,13 +1258,13 @@
         <v>1.276087455554735</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.058388347101482</v>
+        <v>2.058388347101481</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.961378877063826</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.005494979648195</v>
+        <v>2.005494979648194</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.0527714135984515</v>
+        <v>-0.142725648215787</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.15029187612847</v>
+        <v>1.114086102193635</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4625977759267364</v>
+        <v>0.4244674952490001</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.232681601704489</v>
+        <v>1.311899607478368</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3969968902502057</v>
+        <v>0.3351750026793694</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.456776509874851</v>
+        <v>1.450214206026017</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.3465303945916</v>
+        <v>1.366489925646113</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.955870035982246</v>
+        <v>2.962342590005051</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.182132700412329</v>
+        <v>2.133845778179306</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.860165758783804</v>
+        <v>2.952563702760793</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.530689216388808</v>
+        <v>1.506972141350701</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.587323133294967</v>
+        <v>2.641163486989855</v>
       </c>
     </row>
     <row r="31">
@@ -1336,13 +1336,13 @@
         <v>0.471520980143824</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.7605852457189097</v>
+        <v>0.7605852457189094</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4152864467195467</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8663128594583165</v>
+        <v>0.8663128594583163</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03424294933752089</v>
+        <v>-0.06925663211295829</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4696545075711526</v>
+        <v>0.5094971694929044</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1449123230358001</v>
+        <v>0.1391605260460572</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3834608885398516</v>
+        <v>0.4129584516739122</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.15310680617588</v>
+        <v>0.124662814626913</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5558499313627266</v>
+        <v>0.5387212423387358</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8750047328653336</v>
+        <v>0.8742365507983836</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.806259750657374</v>
+        <v>1.889967654493032</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9052480584711018</v>
+        <v>0.9544538236739308</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.256627633035833</v>
+        <v>1.31326933750668</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7448730206065145</v>
+        <v>0.715882008288547</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.236779600832941</v>
+        <v>1.282800672370299</v>
       </c>
     </row>
     <row r="34">
